--- a/data/Economic_index.xlsx
+++ b/data/Economic_index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Machine_Learning\Multiple_Linear_Regression\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42AB7E5B-6BEA-41D8-8AF0-2D22CC3A64C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A638285C-766F-46A0-8159-FEBB4F174ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{D0A7A5F8-CD58-4A16-8206-6B52B913D3EE}"/>
   </bookViews>
@@ -425,7 +425,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -791,7 +791,7 @@
         <v>6.1</v>
       </c>
       <c r="E21">
-        <v>86</v>
+        <v>866</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
